--- a/data/pca/factorExposure/factorExposure_2019-01-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1048955163714241</v>
+        <v>0.06926829579049548</v>
       </c>
       <c r="C2">
-        <v>0.01073159551243937</v>
+        <v>0.03680809480418784</v>
       </c>
       <c r="D2">
-        <v>0.07768351178201492</v>
+        <v>0.01731391251363631</v>
       </c>
       <c r="E2">
-        <v>0.0113142912333463</v>
+        <v>-0.0384891651830021</v>
       </c>
       <c r="F2">
-        <v>0.1311722923828629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1364788843788389</v>
+      </c>
+      <c r="G2">
+        <v>0.05105538185266575</v>
+      </c>
+      <c r="H2">
+        <v>0.06019227887896792</v>
+      </c>
+      <c r="I2">
+        <v>-0.113228627702783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.215676868948995</v>
+        <v>0.1580934132667439</v>
       </c>
       <c r="C3">
-        <v>0.1686033879718306</v>
+        <v>0.1113414353427197</v>
       </c>
       <c r="D3">
-        <v>0.05055042519938357</v>
+        <v>-0.007943077024083499</v>
       </c>
       <c r="E3">
-        <v>-0.01592270404320679</v>
+        <v>0.01775964297330932</v>
       </c>
       <c r="F3">
-        <v>0.3416616976675032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.385188124926362</v>
+      </c>
+      <c r="G3">
+        <v>0.2624510377347635</v>
+      </c>
+      <c r="H3">
+        <v>0.1060647670186535</v>
+      </c>
+      <c r="I3">
+        <v>-0.3637853614250584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09486032134302118</v>
+        <v>0.07137900598561409</v>
       </c>
       <c r="C4">
-        <v>0.04213196794585126</v>
+        <v>0.05142457606831647</v>
       </c>
       <c r="D4">
-        <v>0.05093156407726399</v>
+        <v>-0.01723914718968415</v>
       </c>
       <c r="E4">
-        <v>-0.03479962804988226</v>
+        <v>-0.03769916751463286</v>
       </c>
       <c r="F4">
-        <v>0.07119144585638415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.08039676692016011</v>
+      </c>
+      <c r="G4">
+        <v>0.02250365719118217</v>
+      </c>
+      <c r="H4">
+        <v>0.04830559247386316</v>
+      </c>
+      <c r="I4">
+        <v>-0.05724199243583948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02489867013112029</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.00975092494136863</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.004649762284988874</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00587626453146975</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.006628581991687989</v>
+      </c>
+      <c r="G6">
+        <v>-0.01633932683071527</v>
+      </c>
+      <c r="H6">
+        <v>-0.01972588594155101</v>
+      </c>
+      <c r="I6">
+        <v>-0.001229944505945212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04511105963004042</v>
+        <v>0.03533513511487162</v>
       </c>
       <c r="C7">
-        <v>0.02098020044350029</v>
+        <v>0.02110441344144402</v>
       </c>
       <c r="D7">
-        <v>0.04262684521626758</v>
+        <v>-0.036982729535685</v>
       </c>
       <c r="E7">
-        <v>0.001720896628160567</v>
+        <v>-0.02516533071913221</v>
       </c>
       <c r="F7">
-        <v>0.06154100172671774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04967045511984459</v>
+      </c>
+      <c r="G7">
+        <v>0.05204796538887099</v>
+      </c>
+      <c r="H7">
+        <v>0.0005682764944492854</v>
+      </c>
+      <c r="I7">
+        <v>-0.04009951269449201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05255473673760708</v>
+        <v>0.02577442885591442</v>
       </c>
       <c r="C8">
-        <v>0.05666312094412269</v>
+        <v>0.0525815915574499</v>
       </c>
       <c r="D8">
-        <v>0.02594963415365086</v>
+        <v>-0.01303439158784525</v>
       </c>
       <c r="E8">
-        <v>-0.02861314043834939</v>
+        <v>-0.01621769892566635</v>
       </c>
       <c r="F8">
-        <v>0.06875475027668675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0730820656962627</v>
+      </c>
+      <c r="G8">
+        <v>0.0417426372065622</v>
+      </c>
+      <c r="H8">
+        <v>0.03976168377522676</v>
+      </c>
+      <c r="I8">
+        <v>-0.06262450362868965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.07933185869672664</v>
+        <v>0.06022275495383846</v>
       </c>
       <c r="C9">
-        <v>0.03079653923566083</v>
+        <v>0.04369059200611149</v>
       </c>
       <c r="D9">
-        <v>0.05264942933036639</v>
+        <v>-0.01955029544132603</v>
       </c>
       <c r="E9">
-        <v>-0.04724096613628029</v>
+        <v>-0.03411870857220337</v>
       </c>
       <c r="F9">
-        <v>0.0535314077568004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07926703636428679</v>
+      </c>
+      <c r="G9">
+        <v>0.02288428885972754</v>
+      </c>
+      <c r="H9">
+        <v>0.04468439035098403</v>
+      </c>
+      <c r="I9">
+        <v>-0.03181499482111993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02643610311102807</v>
+        <v>0.03583800920023388</v>
       </c>
       <c r="C10">
-        <v>-0.1606086441564131</v>
+        <v>-0.1657697241576057</v>
       </c>
       <c r="D10">
-        <v>-0.04573931993733323</v>
+        <v>0.01298119841641705</v>
       </c>
       <c r="E10">
-        <v>0.03661117315688369</v>
+        <v>0.02682948669244317</v>
       </c>
       <c r="F10">
-        <v>0.0762366116145113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06834837708546371</v>
+      </c>
+      <c r="G10">
+        <v>0.02300632740107159</v>
+      </c>
+      <c r="H10">
+        <v>0.04208503602106807</v>
+      </c>
+      <c r="I10">
+        <v>-0.03874854423589676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0588836055124931</v>
+        <v>0.04880202585279375</v>
       </c>
       <c r="C11">
-        <v>0.01947117707576596</v>
+        <v>0.03342443012187608</v>
       </c>
       <c r="D11">
-        <v>0.01134931236548132</v>
+        <v>0.005261861951060426</v>
       </c>
       <c r="E11">
-        <v>0.006298825887863475</v>
+        <v>-0.007426526690874733</v>
       </c>
       <c r="F11">
-        <v>0.04328126973350253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03805608375495668</v>
+      </c>
+      <c r="G11">
+        <v>0.0003995613443746668</v>
+      </c>
+      <c r="H11">
+        <v>0.01389163084877112</v>
+      </c>
+      <c r="I11">
+        <v>-0.03022878033903077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04742869322681397</v>
+        <v>0.04399817152126476</v>
       </c>
       <c r="C12">
-        <v>0.02130395007934511</v>
+        <v>0.03063544036267172</v>
       </c>
       <c r="D12">
-        <v>0.007272775251758686</v>
+        <v>-0.006497241232062149</v>
       </c>
       <c r="E12">
-        <v>-0.01097813531411452</v>
+        <v>-0.008148175374728233</v>
       </c>
       <c r="F12">
-        <v>0.02756282887394177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01357729511106455</v>
+      </c>
+      <c r="G12">
+        <v>0.003241862087415059</v>
+      </c>
+      <c r="H12">
+        <v>0.005955728923026207</v>
+      </c>
+      <c r="I12">
+        <v>-0.0179333380309226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06095251556073626</v>
+        <v>0.04328721426637487</v>
       </c>
       <c r="C13">
-        <v>0.02906198265982386</v>
+        <v>0.03017650988091351</v>
       </c>
       <c r="D13">
-        <v>0.02481960218491079</v>
+        <v>0.01419456848480738</v>
       </c>
       <c r="E13">
-        <v>0.02853932492873758</v>
+        <v>-0.00768209537658119</v>
       </c>
       <c r="F13">
-        <v>0.1088417850463813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1041578780572907</v>
+      </c>
+      <c r="G13">
+        <v>0.03111584882009607</v>
+      </c>
+      <c r="H13">
+        <v>0.03428481905049385</v>
+      </c>
+      <c r="I13">
+        <v>-0.06401763983308652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03588237064705323</v>
+        <v>0.02751118599574173</v>
       </c>
       <c r="C14">
-        <v>0.02474718458421247</v>
+        <v>0.02478004717813482</v>
       </c>
       <c r="D14">
-        <v>0.03743353998971382</v>
+        <v>-0.006201781992546355</v>
       </c>
       <c r="E14">
-        <v>-0.004881272245307803</v>
+        <v>-0.02739315702758621</v>
       </c>
       <c r="F14">
-        <v>0.01964914142963474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03600296239395424</v>
+      </c>
+      <c r="G14">
+        <v>0.05378116379626138</v>
+      </c>
+      <c r="H14">
+        <v>0.01919398475646349</v>
+      </c>
+      <c r="I14">
+        <v>-0.01712504148313051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05020967268288874</v>
+        <v>0.04256985275079826</v>
       </c>
       <c r="C16">
-        <v>0.02487317392978506</v>
+        <v>0.03522839425196513</v>
       </c>
       <c r="D16">
-        <v>0.00696218102760165</v>
+        <v>-0.0005443675626449887</v>
       </c>
       <c r="E16">
-        <v>0.0009096114023618171</v>
+        <v>-0.005134517816979074</v>
       </c>
       <c r="F16">
-        <v>0.03379130366000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.0340518982998165</v>
+      </c>
+      <c r="G16">
+        <v>0.005484616095635699</v>
+      </c>
+      <c r="H16">
+        <v>0.005899329692941135</v>
+      </c>
+      <c r="I16">
+        <v>-0.03156579750766338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06605721194031937</v>
+        <v>0.05299007087554145</v>
       </c>
       <c r="C19">
-        <v>0.04858097800199068</v>
+        <v>0.04738777713542815</v>
       </c>
       <c r="D19">
-        <v>0.02404814187008662</v>
+        <v>0.00161671158725159</v>
       </c>
       <c r="E19">
-        <v>-0.001519114721657324</v>
+        <v>-0.01857235276637858</v>
       </c>
       <c r="F19">
-        <v>0.07951706343813872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09118029345650296</v>
+      </c>
+      <c r="G19">
+        <v>0.05498244274241739</v>
+      </c>
+      <c r="H19">
+        <v>0.02594276215684796</v>
+      </c>
+      <c r="I19">
+        <v>-0.0688566973442636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03283053352832244</v>
+        <v>0.01967871107353072</v>
       </c>
       <c r="C20">
-        <v>0.0329517831959939</v>
+        <v>0.02999838769212277</v>
       </c>
       <c r="D20">
-        <v>0.04266373019865207</v>
+        <v>-0.00607101905575424</v>
       </c>
       <c r="E20">
-        <v>-0.02100708969720759</v>
+        <v>-0.02011544307393085</v>
       </c>
       <c r="F20">
-        <v>0.06252997166421524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06349267409780207</v>
+      </c>
+      <c r="G20">
+        <v>0.05848410981923727</v>
+      </c>
+      <c r="H20">
+        <v>0.01678661545025032</v>
+      </c>
+      <c r="I20">
+        <v>-0.07562716565885526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03713675391124772</v>
+        <v>0.03409079770889809</v>
       </c>
       <c r="C21">
-        <v>0.04151197076675983</v>
+        <v>0.0319493862333812</v>
       </c>
       <c r="D21">
-        <v>0.01934874096054693</v>
+        <v>-0.01266832558162263</v>
       </c>
       <c r="E21">
-        <v>0.002854417736590536</v>
+        <v>-0.005582572882718073</v>
       </c>
       <c r="F21">
-        <v>0.1015005294888085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.08028655784975765</v>
+      </c>
+      <c r="G21">
+        <v>0.01303417648657049</v>
+      </c>
+      <c r="H21">
+        <v>0.04856413879452163</v>
+      </c>
+      <c r="I21">
+        <v>-0.003797035877442086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04886845225670416</v>
+        <v>0.04070689682106165</v>
       </c>
       <c r="C24">
-        <v>0.02181565265660566</v>
+        <v>0.03035368716527387</v>
       </c>
       <c r="D24">
-        <v>0.01466658091163996</v>
+        <v>-0.0008596091020250962</v>
       </c>
       <c r="E24">
-        <v>-0.004327022149190252</v>
+        <v>-0.008252329369156049</v>
       </c>
       <c r="F24">
-        <v>0.0423269154587238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03651677838727799</v>
+      </c>
+      <c r="G24">
+        <v>0.0008983081549190446</v>
+      </c>
+      <c r="H24">
+        <v>0.008210553887023702</v>
+      </c>
+      <c r="I24">
+        <v>-0.03210859874580878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05152045565369689</v>
+        <v>0.04765718150947725</v>
       </c>
       <c r="C25">
-        <v>0.01727405908971157</v>
+        <v>0.02739081483359884</v>
       </c>
       <c r="D25">
-        <v>0.0110334707743259</v>
+        <v>-4.59363434132898e-06</v>
       </c>
       <c r="E25">
-        <v>-0.002569812319398575</v>
+        <v>-0.007163786655848594</v>
       </c>
       <c r="F25">
-        <v>0.04022341690544326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04290415240378099</v>
+      </c>
+      <c r="G25">
+        <v>-0.001213537167049695</v>
+      </c>
+      <c r="H25">
+        <v>0.01312484606066948</v>
+      </c>
+      <c r="I25">
+        <v>-0.02266463510147015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02774156566566843</v>
+        <v>0.01618335624960379</v>
       </c>
       <c r="C26">
-        <v>0.03454528624178582</v>
+        <v>0.03025216453596035</v>
       </c>
       <c r="D26">
-        <v>0.02234511723341011</v>
+        <v>0.003650322275576618</v>
       </c>
       <c r="E26">
-        <v>0.0176167466768028</v>
+        <v>-0.001255880282124491</v>
       </c>
       <c r="F26">
-        <v>0.03206390248617702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.0423717259358262</v>
+      </c>
+      <c r="G26">
+        <v>0.03059150169342945</v>
+      </c>
+      <c r="H26">
+        <v>0.01497732917980766</v>
+      </c>
+      <c r="I26">
+        <v>-0.03004824734919876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1185592375774148</v>
+        <v>0.07039629947480533</v>
       </c>
       <c r="C27">
-        <v>0.02207328544070067</v>
+        <v>0.02626717144776746</v>
       </c>
       <c r="D27">
-        <v>0.04025606887808506</v>
+        <v>-0.005322343178091458</v>
       </c>
       <c r="E27">
-        <v>-0.02865381612107473</v>
+        <v>-0.0312870181743693</v>
       </c>
       <c r="F27">
-        <v>0.07829997269691294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06645211628289499</v>
+      </c>
+      <c r="G27">
+        <v>0.01648645333932047</v>
+      </c>
+      <c r="H27">
+        <v>0.02477034151620803</v>
+      </c>
+      <c r="I27">
+        <v>-0.03697542201546563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02755760820325893</v>
+        <v>0.0503685337994066</v>
       </c>
       <c r="C28">
-        <v>-0.2404166778626798</v>
+        <v>-0.2513353302948387</v>
       </c>
       <c r="D28">
-        <v>-0.08175004601189687</v>
+        <v>0.01052557359323212</v>
       </c>
       <c r="E28">
-        <v>0.0356470106625363</v>
+        <v>0.0398746465775688</v>
       </c>
       <c r="F28">
-        <v>0.05426204421448393</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05780054552904855</v>
+      </c>
+      <c r="G28">
+        <v>0.03582395223467776</v>
+      </c>
+      <c r="H28">
+        <v>0.04730698658110848</v>
+      </c>
+      <c r="I28">
+        <v>-0.06311291389083101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.03158018149715792</v>
+        <v>0.02453015492016748</v>
       </c>
       <c r="C29">
-        <v>0.02309629012825969</v>
+        <v>0.02241339244842873</v>
       </c>
       <c r="D29">
-        <v>0.03574119600375873</v>
+        <v>-0.009642388727155376</v>
       </c>
       <c r="E29">
-        <v>-0.01722249079375851</v>
+        <v>-0.02906215089306767</v>
       </c>
       <c r="F29">
-        <v>0.01901455891867158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03284828586880754</v>
+      </c>
+      <c r="G29">
+        <v>0.05301221861072919</v>
+      </c>
+      <c r="H29">
+        <v>0.02247307422336753</v>
+      </c>
+      <c r="I29">
+        <v>-0.001647408844250946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1152644141823939</v>
+        <v>0.08964781004735345</v>
       </c>
       <c r="C30">
-        <v>0.02422741230881825</v>
+        <v>0.05390325554453452</v>
       </c>
       <c r="D30">
-        <v>0.04670565275404713</v>
+        <v>0.03635308420885246</v>
       </c>
       <c r="E30">
-        <v>0.004067524528940654</v>
+        <v>-0.03264766530853495</v>
       </c>
       <c r="F30">
-        <v>0.1047848989833595</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1066563877893087</v>
+      </c>
+      <c r="G30">
+        <v>0.01099738423094375</v>
+      </c>
+      <c r="H30">
+        <v>-0.006232243509319368</v>
+      </c>
+      <c r="I30">
+        <v>-0.021859244850927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06880722852751178</v>
+        <v>0.06226635683956934</v>
       </c>
       <c r="C31">
-        <v>0.01514669054087899</v>
+        <v>0.02303338348792937</v>
       </c>
       <c r="D31">
-        <v>0.03060874696724011</v>
+        <v>0.009420682040214054</v>
       </c>
       <c r="E31">
-        <v>0.03274671239214441</v>
+        <v>-0.02390311077342144</v>
       </c>
       <c r="F31">
-        <v>-0.03522235648443871</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.004346252342552229</v>
+      </c>
+      <c r="G31">
+        <v>0.04168384362213728</v>
+      </c>
+      <c r="H31">
+        <v>0.03866127865947085</v>
+      </c>
+      <c r="I31">
+        <v>-0.01085336189464092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07039054790014233</v>
+        <v>0.04246117840098506</v>
       </c>
       <c r="C32">
-        <v>0.04276616915642913</v>
+        <v>0.04775564963791468</v>
       </c>
       <c r="D32">
-        <v>0.034338787852778</v>
+        <v>-0.01755593925594227</v>
       </c>
       <c r="E32">
-        <v>-0.01644273216842284</v>
+        <v>-0.03063509387311221</v>
       </c>
       <c r="F32">
-        <v>0.09289839048724777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08377921969867876</v>
+      </c>
+      <c r="G32">
+        <v>0.03206481841321989</v>
+      </c>
+      <c r="H32">
+        <v>0.02918260621438875</v>
+      </c>
+      <c r="I32">
+        <v>-0.05565850104802887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06967331020491996</v>
+        <v>0.05536142722712398</v>
       </c>
       <c r="C33">
-        <v>0.06064625952213015</v>
+        <v>0.05649134883432335</v>
       </c>
       <c r="D33">
-        <v>0.03640068136131763</v>
+        <v>0.01775728305337031</v>
       </c>
       <c r="E33">
-        <v>0.01038115368354563</v>
+        <v>-0.00797884606038177</v>
       </c>
       <c r="F33">
-        <v>0.06606175020786013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07392671080469219</v>
+      </c>
+      <c r="G33">
+        <v>0.03907834376736107</v>
+      </c>
+      <c r="H33">
+        <v>0.03929858421419236</v>
+      </c>
+      <c r="I33">
+        <v>-0.03619620307428591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04998749950056304</v>
+        <v>0.04281467581322018</v>
       </c>
       <c r="C34">
-        <v>0.02195216974497793</v>
+        <v>0.03550739908213851</v>
       </c>
       <c r="D34">
-        <v>0.01684399396110518</v>
+        <v>-0.005435647995595465</v>
       </c>
       <c r="E34">
-        <v>-0.003363014610064814</v>
+        <v>-0.01464211950990073</v>
       </c>
       <c r="F34">
-        <v>0.02802695139264608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03322688769130571</v>
+      </c>
+      <c r="G34">
+        <v>0.005961911029170764</v>
+      </c>
+      <c r="H34">
+        <v>0.009979380800692635</v>
+      </c>
+      <c r="I34">
+        <v>-0.0261268350506681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01774850170113922</v>
+        <v>0.01543043495199287</v>
       </c>
       <c r="C36">
-        <v>0.002737193204676816</v>
+        <v>0.005502111763188319</v>
       </c>
       <c r="D36">
-        <v>0.01385321206427546</v>
+        <v>-0.0041914968058887</v>
       </c>
       <c r="E36">
-        <v>-0.005577018778592987</v>
+        <v>-0.01002061568803967</v>
       </c>
       <c r="F36">
-        <v>0.01680964879067953</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02503214394590625</v>
+      </c>
+      <c r="G36">
+        <v>0.0357112272061061</v>
+      </c>
+      <c r="H36">
+        <v>0.02317243948293394</v>
+      </c>
+      <c r="I36">
+        <v>0.009012567534502386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04293104831616901</v>
+        <v>0.03582558049199557</v>
       </c>
       <c r="C38">
-        <v>0.01147550021419802</v>
+        <v>0.01587623258768379</v>
       </c>
       <c r="D38">
-        <v>0.01566950981965113</v>
+        <v>-0.00447567788425163</v>
       </c>
       <c r="E38">
-        <v>-0.01952540200972491</v>
+        <v>-0.00986029983384613</v>
       </c>
       <c r="F38">
-        <v>0.02241316947477684</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04933637564070704</v>
+      </c>
+      <c r="G38">
+        <v>0.02118261673400263</v>
+      </c>
+      <c r="H38">
+        <v>0.02562548839197171</v>
+      </c>
+      <c r="I38">
+        <v>0.01183934622721847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07078028889971424</v>
+        <v>0.05420611458578233</v>
       </c>
       <c r="C39">
-        <v>0.02365673272897654</v>
+        <v>0.04930774440293572</v>
       </c>
       <c r="D39">
-        <v>0.02309942619782312</v>
+        <v>0.004239489309250402</v>
       </c>
       <c r="E39">
-        <v>0.0131158212267818</v>
+        <v>-0.01670847483395413</v>
       </c>
       <c r="F39">
-        <v>0.03597715005353432</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05433127173828188</v>
+      </c>
+      <c r="G39">
+        <v>-0.004328337890191841</v>
+      </c>
+      <c r="H39">
+        <v>0.0211589430130719</v>
+      </c>
+      <c r="I39">
+        <v>-0.008854521270091419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07507596868017226</v>
+        <v>0.05651528103011279</v>
       </c>
       <c r="C40">
-        <v>0.02587003489226842</v>
+        <v>0.04574781062466072</v>
       </c>
       <c r="D40">
-        <v>0.05866915244676388</v>
+        <v>0.0195732907638915</v>
       </c>
       <c r="E40">
-        <v>0.03059881395888235</v>
+        <v>-0.02427308272667273</v>
       </c>
       <c r="F40">
-        <v>0.1105044800607315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.097591195297769</v>
+      </c>
+      <c r="G40">
+        <v>0.02740904052043719</v>
+      </c>
+      <c r="H40">
+        <v>0.03351992871131514</v>
+      </c>
+      <c r="I40">
+        <v>-0.1136186752922189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.003379327671857963</v>
+        <v>0.0047978006200862</v>
       </c>
       <c r="C41">
-        <v>0.02463327940772738</v>
+        <v>0.01169595200731468</v>
       </c>
       <c r="D41">
-        <v>0.02788300630453468</v>
+        <v>0.000201971089681594</v>
       </c>
       <c r="E41">
-        <v>-0.006577189142764105</v>
+        <v>-0.010646685121708</v>
       </c>
       <c r="F41">
-        <v>-0.00834512568553772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01099123662651091</v>
+      </c>
+      <c r="G41">
+        <v>0.04361886181156735</v>
+      </c>
+      <c r="H41">
+        <v>0.0418919181047101</v>
+      </c>
+      <c r="I41">
+        <v>-0.00998851548464998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1951710382709758</v>
+        <v>0.2175666444643684</v>
       </c>
       <c r="C42">
-        <v>0.4151385477547332</v>
+        <v>0.2098479859167305</v>
       </c>
       <c r="D42">
-        <v>-0.8092562297519585</v>
+        <v>0.05545237871854088</v>
       </c>
       <c r="E42">
-        <v>0.2819471943855634</v>
+        <v>0.9194563871420663</v>
       </c>
       <c r="F42">
-        <v>-0.04022079278242467</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1656113000501831</v>
+      </c>
+      <c r="G42">
+        <v>-0.009038516074424276</v>
+      </c>
+      <c r="H42">
+        <v>-0.005024484888635562</v>
+      </c>
+      <c r="I42">
+        <v>-0.06378212004482943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00686711969925907</v>
+        <v>0.008704670410320975</v>
       </c>
       <c r="C43">
-        <v>0.02683377115215421</v>
+        <v>0.01348227484422856</v>
       </c>
       <c r="D43">
-        <v>0.03044085123181345</v>
+        <v>0.00281358784745904</v>
       </c>
       <c r="E43">
-        <v>-0.002770971579468992</v>
+        <v>-0.0096608343736813</v>
       </c>
       <c r="F43">
-        <v>0.02151501101197359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02478478786381072</v>
+      </c>
+      <c r="G43">
+        <v>0.03172229984398798</v>
+      </c>
+      <c r="H43">
+        <v>0.02525847540091757</v>
+      </c>
+      <c r="I43">
+        <v>-0.0190905528677485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04635694068335318</v>
+        <v>0.0301456214306009</v>
       </c>
       <c r="C44">
-        <v>0.05338118616903422</v>
+        <v>0.04434807837634366</v>
       </c>
       <c r="D44">
-        <v>0.03877079880019346</v>
+        <v>-0.003004152317512877</v>
       </c>
       <c r="E44">
-        <v>0.003085475760390381</v>
+        <v>-0.01297662862995702</v>
       </c>
       <c r="F44">
-        <v>0.1117255177036052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1183746927099608</v>
+      </c>
+      <c r="G44">
+        <v>0.08245732841345656</v>
+      </c>
+      <c r="H44">
+        <v>0.05931056030735866</v>
+      </c>
+      <c r="I44">
+        <v>-0.05592087275218196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03300044741444894</v>
+        <v>0.02684633443492687</v>
       </c>
       <c r="C46">
-        <v>0.02568394374322389</v>
+        <v>0.03739983382006147</v>
       </c>
       <c r="D46">
-        <v>0.03731181855827816</v>
+        <v>0.002750648845020714</v>
       </c>
       <c r="E46">
-        <v>-0.001346784393722985</v>
+        <v>-0.0304932959408755</v>
       </c>
       <c r="F46">
-        <v>0.01437710808093074</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04344715482276632</v>
+      </c>
+      <c r="G46">
+        <v>0.05774058472854587</v>
+      </c>
+      <c r="H46">
+        <v>0.02230145519808693</v>
+      </c>
+      <c r="I46">
+        <v>-0.006716810895811162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09555533499926112</v>
+        <v>0.08802271089129356</v>
       </c>
       <c r="C47">
-        <v>0.01288229961774815</v>
+        <v>0.02205519166993106</v>
       </c>
       <c r="D47">
-        <v>0.02605067581451417</v>
+        <v>0.003841572754309019</v>
       </c>
       <c r="E47">
-        <v>-0.001905307162235981</v>
+        <v>-0.02734493243863431</v>
       </c>
       <c r="F47">
-        <v>-0.02883117119668956</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01749180560099609</v>
+      </c>
+      <c r="G47">
+        <v>0.05885332046185501</v>
+      </c>
+      <c r="H47">
+        <v>0.0331275090603748</v>
+      </c>
+      <c r="I47">
+        <v>-0.03429167499957621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0214532381628201</v>
+        <v>0.0210400425970953</v>
       </c>
       <c r="C48">
-        <v>0.02304587349730719</v>
+        <v>0.01821454384257723</v>
       </c>
       <c r="D48">
-        <v>0.02403969034517337</v>
+        <v>-0.001276761082153738</v>
       </c>
       <c r="E48">
-        <v>-0.0008476119885874434</v>
+        <v>-0.01353922866680973</v>
       </c>
       <c r="F48">
-        <v>0.02070025185912731</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02625121452819679</v>
+      </c>
+      <c r="G48">
+        <v>0.02451210720562399</v>
+      </c>
+      <c r="H48">
+        <v>0.01875005939840285</v>
+      </c>
+      <c r="I48">
+        <v>-0.01019957876832264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09288387492287407</v>
+        <v>0.0889823352493536</v>
       </c>
       <c r="C50">
-        <v>0.03219957558039496</v>
+        <v>0.04155832573446943</v>
       </c>
       <c r="D50">
-        <v>0.03023968929945094</v>
+        <v>-0.01120540633943727</v>
       </c>
       <c r="E50">
-        <v>0.006217656158737249</v>
+        <v>-0.02415652510785219</v>
       </c>
       <c r="F50">
-        <v>-0.03041925191652388</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01109772483520089</v>
+      </c>
+      <c r="G50">
+        <v>0.03830827208597119</v>
+      </c>
+      <c r="H50">
+        <v>-0.007207008006204238</v>
+      </c>
+      <c r="I50">
+        <v>0.004201687377705389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05769950620336554</v>
+        <v>0.04009835914664907</v>
       </c>
       <c r="C51">
-        <v>-0.008689764155541096</v>
+        <v>-0.002501363456674116</v>
       </c>
       <c r="D51">
-        <v>0.02708358705325467</v>
+        <v>0.01011202140620489</v>
       </c>
       <c r="E51">
-        <v>0.02910453804442962</v>
+        <v>-0.01167969865257098</v>
       </c>
       <c r="F51">
-        <v>0.06545597760612019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09196364513841535</v>
+      </c>
+      <c r="G51">
+        <v>0.06225035932272106</v>
+      </c>
+      <c r="H51">
+        <v>0.0562242721225369</v>
+      </c>
+      <c r="I51">
+        <v>-0.03533253151677827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1347558973124279</v>
+        <v>0.1250461992934707</v>
       </c>
       <c r="C53">
-        <v>0.01472519690794403</v>
+        <v>0.03927546415656696</v>
       </c>
       <c r="D53">
-        <v>0.05549984967414411</v>
+        <v>0.00429046047881702</v>
       </c>
       <c r="E53">
-        <v>0.005198409594996472</v>
+        <v>-0.05241929023527254</v>
       </c>
       <c r="F53">
-        <v>-0.06236385267530146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04724078750086924</v>
+      </c>
+      <c r="G53">
+        <v>0.006352940882529345</v>
+      </c>
+      <c r="H53">
+        <v>0.02895645008822213</v>
+      </c>
+      <c r="I53">
+        <v>-0.03896705518412062</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02917328724020415</v>
+        <v>0.02682545804189154</v>
       </c>
       <c r="C54">
-        <v>0.007326133353679525</v>
+        <v>0.008755680156948751</v>
       </c>
       <c r="D54">
-        <v>0.03231278924470316</v>
+        <v>-0.004634480936283165</v>
       </c>
       <c r="E54">
-        <v>-0.007966194556113165</v>
+        <v>-0.0295026360153887</v>
       </c>
       <c r="F54">
-        <v>0.02233569002022564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03132580030652053</v>
+      </c>
+      <c r="G54">
+        <v>0.05348089117290888</v>
+      </c>
+      <c r="H54">
+        <v>0.03580239224619716</v>
+      </c>
+      <c r="I54">
+        <v>-0.001628574509132535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1062732330201415</v>
+        <v>0.09781475293558266</v>
       </c>
       <c r="C55">
-        <v>-0.004350775833380163</v>
+        <v>0.03270031007237289</v>
       </c>
       <c r="D55">
-        <v>0.03019427851382404</v>
+        <v>-0.01364210366868395</v>
       </c>
       <c r="E55">
-        <v>-0.04293653679473085</v>
+        <v>-0.03705709752279136</v>
       </c>
       <c r="F55">
-        <v>-0.02620055522999581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03621624517743031</v>
+      </c>
+      <c r="G55">
+        <v>0.02356358467110463</v>
+      </c>
+      <c r="H55">
+        <v>-0.009391826915549132</v>
+      </c>
+      <c r="I55">
+        <v>-0.02041578377848875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1676144351777575</v>
+        <v>0.1638947564733841</v>
       </c>
       <c r="C56">
-        <v>-0.03830205405084893</v>
+        <v>0.02383221258834036</v>
       </c>
       <c r="D56">
-        <v>0.08141113492994077</v>
+        <v>0.0008993837030318352</v>
       </c>
       <c r="E56">
-        <v>-0.02933567470369097</v>
+        <v>-0.08724410965953794</v>
       </c>
       <c r="F56">
-        <v>-0.1037137563147211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09123392253343117</v>
+      </c>
+      <c r="G56">
+        <v>-0.03380034951539786</v>
+      </c>
+      <c r="H56">
+        <v>-0.01424282959717525</v>
+      </c>
+      <c r="I56">
+        <v>-0.03838805004324467</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08513721743907016</v>
+        <v>0.06637864389491983</v>
       </c>
       <c r="C57">
-        <v>0.0254537544471927</v>
+        <v>0.03247028915713242</v>
       </c>
       <c r="D57">
-        <v>0.03578567583344721</v>
+        <v>0.02089562601586819</v>
       </c>
       <c r="E57">
-        <v>0.03058602861790056</v>
+        <v>-0.004565341826459564</v>
       </c>
       <c r="F57">
-        <v>0.05012310635349595</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.07106917630858052</v>
+      </c>
+      <c r="G57">
+        <v>0.01499950695925428</v>
+      </c>
+      <c r="H57">
+        <v>0.01893641029852263</v>
+      </c>
+      <c r="I57">
+        <v>-0.02471910275883088</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2042274793572335</v>
+        <v>0.2090173021578817</v>
       </c>
       <c r="C58">
-        <v>0.06437712307156501</v>
+        <v>0.1123605084395966</v>
       </c>
       <c r="D58">
-        <v>0.04246819599976576</v>
+        <v>0.09013871808525535</v>
       </c>
       <c r="E58">
-        <v>0.0453503655147285</v>
+        <v>0.03074156049677098</v>
       </c>
       <c r="F58">
-        <v>0.1289348296344112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.276188784814982</v>
+      </c>
+      <c r="G58">
+        <v>0.4034348784197929</v>
+      </c>
+      <c r="H58">
+        <v>-0.3146171109998463</v>
+      </c>
+      <c r="I58">
+        <v>0.7011801298366057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02549507721331685</v>
+        <v>0.04967556431931954</v>
       </c>
       <c r="C59">
-        <v>-0.1948250332842763</v>
+        <v>-0.2062320081663167</v>
       </c>
       <c r="D59">
-        <v>-0.04278814530103803</v>
+        <v>0.02383858852686803</v>
       </c>
       <c r="E59">
-        <v>0.02528288730117133</v>
+        <v>0.009015989330721501</v>
       </c>
       <c r="F59">
-        <v>0.05660062036300165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.07101797828001423</v>
+      </c>
+      <c r="G59">
+        <v>-0.003712939623659082</v>
+      </c>
+      <c r="H59">
+        <v>0.01533807331839525</v>
+      </c>
+      <c r="I59">
+        <v>-0.01055008571582386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1822628398635717</v>
+        <v>0.1929976995172111</v>
       </c>
       <c r="C60">
-        <v>-0.07151656810014143</v>
+        <v>-0.05131588836076107</v>
       </c>
       <c r="D60">
-        <v>0.0277311715728416</v>
+        <v>0.049215905254138</v>
       </c>
       <c r="E60">
-        <v>0.06588242536742628</v>
+        <v>-0.01302323727236307</v>
       </c>
       <c r="F60">
-        <v>0.1908343931190608</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2004713425401684</v>
+      </c>
+      <c r="G60">
+        <v>-0.3396050378327975</v>
+      </c>
+      <c r="H60">
+        <v>-0.01681568156072056</v>
+      </c>
+      <c r="I60">
+        <v>0.02529695103367052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04306655920157729</v>
+        <v>0.04034727239701837</v>
       </c>
       <c r="C61">
-        <v>0.01505642539249619</v>
+        <v>0.03412081162730884</v>
       </c>
       <c r="D61">
-        <v>0.01218473025359152</v>
+        <v>-0.002427070343740751</v>
       </c>
       <c r="E61">
-        <v>-0.005481180686727368</v>
+        <v>-0.01028598689935354</v>
       </c>
       <c r="F61">
-        <v>0.03226862949673266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03583069528958079</v>
+      </c>
+      <c r="G61">
+        <v>-0.00865171672634673</v>
+      </c>
+      <c r="H61">
+        <v>0.01128427072969868</v>
+      </c>
+      <c r="I61">
+        <v>0.0009227430221632272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04238566903375113</v>
+        <v>0.03103500259253897</v>
       </c>
       <c r="C63">
-        <v>0.01292722901813346</v>
+        <v>0.02531237572049249</v>
       </c>
       <c r="D63">
-        <v>0.02981165212865708</v>
+        <v>0.0002489882716720635</v>
       </c>
       <c r="E63">
-        <v>0.001860872158375079</v>
+        <v>-0.01750447385479926</v>
       </c>
       <c r="F63">
-        <v>0.03322719253129094</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.0291501406968819</v>
+      </c>
+      <c r="G63">
+        <v>0.04882368590950235</v>
+      </c>
+      <c r="H63">
+        <v>0.007783666379524247</v>
+      </c>
+      <c r="I63">
+        <v>-0.03245275774993171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06164398353691551</v>
+        <v>0.05681830779453009</v>
       </c>
       <c r="C64">
-        <v>0.03061952898267711</v>
+        <v>0.03510286794088117</v>
       </c>
       <c r="D64">
-        <v>0.0243770549158383</v>
+        <v>-0.01127654139911504</v>
       </c>
       <c r="E64">
-        <v>-0.03026815061276846</v>
+        <v>-0.01860383285841429</v>
       </c>
       <c r="F64">
-        <v>0.02988144391166276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03806886821710477</v>
+      </c>
+      <c r="G64">
+        <v>0.02528384356095312</v>
+      </c>
+      <c r="H64">
+        <v>0.06050505217716752</v>
+      </c>
+      <c r="I64">
+        <v>-0.03852286832798956</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02751475503788112</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.009712718066244097</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005065999779171952</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006582781247082549</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.003252258993966445</v>
+      </c>
+      <c r="G65">
+        <v>-0.02127303761146802</v>
+      </c>
+      <c r="H65">
+        <v>-0.0188685502324812</v>
+      </c>
+      <c r="I65">
+        <v>-0.001662732965414729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.07872652314749398</v>
+        <v>0.06802858233071064</v>
       </c>
       <c r="C66">
-        <v>0.03619816178664827</v>
+        <v>0.05946195410327468</v>
       </c>
       <c r="D66">
-        <v>0.04874771478433124</v>
+        <v>0.01062835516257531</v>
       </c>
       <c r="E66">
-        <v>-0.003678737525846674</v>
+        <v>-0.04327395870635959</v>
       </c>
       <c r="F66">
-        <v>0.07247815151245421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06723523323687305</v>
+      </c>
+      <c r="G66">
+        <v>-0.0111223860644355</v>
+      </c>
+      <c r="H66">
+        <v>0.008019276553378453</v>
+      </c>
+      <c r="I66">
+        <v>-0.04821920318656404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0533402830309699</v>
+        <v>0.04862241309994723</v>
       </c>
       <c r="C67">
-        <v>-0.01230298418427578</v>
+        <v>-0.002227932473378508</v>
       </c>
       <c r="D67">
-        <v>0.002516201996222817</v>
+        <v>0.001411269039158805</v>
       </c>
       <c r="E67">
-        <v>-0.006145992390432369</v>
+        <v>-0.008752608550684531</v>
       </c>
       <c r="F67">
-        <v>0.01949331515519383</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03774814696533488</v>
+      </c>
+      <c r="G67">
+        <v>0.002395699331780906</v>
+      </c>
+      <c r="H67">
+        <v>0.0359972169860433</v>
+      </c>
+      <c r="I67">
+        <v>0.02481455435670842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04444633410501883</v>
+        <v>0.05971599239284375</v>
       </c>
       <c r="C68">
-        <v>-0.2353512493142193</v>
+        <v>-0.2399416840078585</v>
       </c>
       <c r="D68">
-        <v>-0.07191462490703061</v>
+        <v>0.02406177472663795</v>
       </c>
       <c r="E68">
-        <v>0.03393755285958856</v>
+        <v>0.02574235040595222</v>
       </c>
       <c r="F68">
-        <v>0.05349048706121997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05074466996636172</v>
+      </c>
+      <c r="G68">
+        <v>0.02012058235697043</v>
+      </c>
+      <c r="H68">
+        <v>-0.001513200945828566</v>
+      </c>
+      <c r="I68">
+        <v>-0.0265315895601643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.08003286370006954</v>
+        <v>0.07268800582712709</v>
       </c>
       <c r="C69">
-        <v>0.002741180934595644</v>
+        <v>0.0212822149254967</v>
       </c>
       <c r="D69">
-        <v>0.02770086494988704</v>
+        <v>0.006052503626033834</v>
       </c>
       <c r="E69">
-        <v>0.0007474428183055463</v>
+        <v>-0.03042783001046997</v>
       </c>
       <c r="F69">
-        <v>-0.01704293538562671</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.004082030818749386</v>
+      </c>
+      <c r="G69">
+        <v>0.0379444450388923</v>
+      </c>
+      <c r="H69">
+        <v>0.02578132018086841</v>
+      </c>
+      <c r="I69">
+        <v>-0.01726350978384234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.03908999922229014</v>
+        <v>0.05722651426617555</v>
       </c>
       <c r="C71">
-        <v>-0.286553960665585</v>
+        <v>-0.2644197755415525</v>
       </c>
       <c r="D71">
-        <v>-0.07458149316869418</v>
+        <v>0.02765112214872266</v>
       </c>
       <c r="E71">
-        <v>0.06677997123537849</v>
+        <v>0.04190711077887301</v>
       </c>
       <c r="F71">
-        <v>0.084149384901401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07032892454652388</v>
+      </c>
+      <c r="G71">
+        <v>0.02629327266794508</v>
+      </c>
+      <c r="H71">
+        <v>0.02411365653889539</v>
+      </c>
+      <c r="I71">
+        <v>-0.0283543033896746</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1314379014311739</v>
+        <v>0.1252762407758491</v>
       </c>
       <c r="C72">
-        <v>-0.02238013217481491</v>
+        <v>0.03899321238687697</v>
       </c>
       <c r="D72">
-        <v>0.05651809212267392</v>
+        <v>0.006930771457032108</v>
       </c>
       <c r="E72">
-        <v>-0.00406953902403037</v>
+        <v>-0.07090530301461925</v>
       </c>
       <c r="F72">
-        <v>0.07524336564499041</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08546721436592161</v>
+      </c>
+      <c r="G72">
+        <v>-0.04177553736398766</v>
+      </c>
+      <c r="H72">
+        <v>-0.04869963634257429</v>
+      </c>
+      <c r="I72">
+        <v>0.1081406512925899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2735831317849609</v>
+        <v>0.2705124547380268</v>
       </c>
       <c r="C73">
-        <v>-0.1370125472192605</v>
+        <v>-0.07342479850498057</v>
       </c>
       <c r="D73">
-        <v>-0.02361453174225013</v>
+        <v>0.08702772204285779</v>
       </c>
       <c r="E73">
-        <v>0.09884877598136481</v>
+        <v>0.03539285410396859</v>
       </c>
       <c r="F73">
-        <v>0.3252563612983719</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2932611954670004</v>
+      </c>
+      <c r="G73">
+        <v>-0.5183706681499826</v>
+      </c>
+      <c r="H73">
+        <v>-0.08945237583835808</v>
+      </c>
+      <c r="I73">
+        <v>0.09916577644652183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1506628587594664</v>
+        <v>0.1487718768709057</v>
       </c>
       <c r="C74">
-        <v>-3.655921824975783e-05</v>
+        <v>0.03570998006698822</v>
       </c>
       <c r="D74">
-        <v>0.04044962647077106</v>
+        <v>0.009483659580881128</v>
       </c>
       <c r="E74">
-        <v>0.0008447370213941032</v>
+        <v>-0.04814934130643853</v>
       </c>
       <c r="F74">
-        <v>-0.04968187785079239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06886600602739876</v>
+      </c>
+      <c r="G74">
+        <v>-0.02938970773119005</v>
+      </c>
+      <c r="H74">
+        <v>-0.01886605263893062</v>
+      </c>
+      <c r="I74">
+        <v>-0.08426663266577211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.22524224140432</v>
+        <v>0.2482821541429007</v>
       </c>
       <c r="C75">
-        <v>-0.02465888620167823</v>
+        <v>0.0279469489034511</v>
       </c>
       <c r="D75">
-        <v>0.09064903479063806</v>
+        <v>0.02669148580049496</v>
       </c>
       <c r="E75">
-        <v>0.00714043240933562</v>
+        <v>-0.116420598712358</v>
       </c>
       <c r="F75">
-        <v>-0.1438811140249434</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1449329976841408</v>
+      </c>
+      <c r="G75">
+        <v>-0.01884474601326896</v>
+      </c>
+      <c r="H75">
+        <v>0.01400385052406388</v>
+      </c>
+      <c r="I75">
+        <v>-0.03643719718033192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2507931180777924</v>
+        <v>0.2626610352805286</v>
       </c>
       <c r="C76">
-        <v>-0.06011639316746691</v>
+        <v>0.01827837557406537</v>
       </c>
       <c r="D76">
-        <v>0.09016606443462077</v>
+        <v>-0.01139812922087405</v>
       </c>
       <c r="E76">
-        <v>-0.06178585320649349</v>
+        <v>-0.1367439545531013</v>
       </c>
       <c r="F76">
-        <v>-0.1352935374477782</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1806171516679735</v>
+      </c>
+      <c r="G76">
+        <v>-0.02722841857932364</v>
+      </c>
+      <c r="H76">
+        <v>-0.07110562591889669</v>
+      </c>
+      <c r="I76">
+        <v>-0.05486764538511826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1380148250259911</v>
+        <v>0.1179402231760531</v>
       </c>
       <c r="C77">
-        <v>0.06526967293243137</v>
+        <v>0.07319305731793924</v>
       </c>
       <c r="D77">
-        <v>0.004506190503587087</v>
+        <v>0.006832368634957813</v>
       </c>
       <c r="E77">
-        <v>0.01110699221406612</v>
+        <v>0.04241106012869669</v>
       </c>
       <c r="F77">
-        <v>0.1550172044419164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1619352811513209</v>
+      </c>
+      <c r="G77">
+        <v>0.2111505054268484</v>
+      </c>
+      <c r="H77">
+        <v>0.0006214377910062504</v>
+      </c>
+      <c r="I77">
+        <v>-0.24222133920193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.09115891981517722</v>
+        <v>0.07040188583697224</v>
       </c>
       <c r="C78">
-        <v>0.06498185651052348</v>
+        <v>0.06778421471571605</v>
       </c>
       <c r="D78">
-        <v>0.02416389021753729</v>
+        <v>-0.004404112676373454</v>
       </c>
       <c r="E78">
-        <v>-0.009272730654425571</v>
+        <v>-0.01290192039623684</v>
       </c>
       <c r="F78">
-        <v>0.05106233964154793</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07389230473849948</v>
+      </c>
+      <c r="G78">
+        <v>0.01343952371999255</v>
+      </c>
+      <c r="H78">
+        <v>0.02185347825598345</v>
+      </c>
+      <c r="I78">
+        <v>-0.02786212567033454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.104445736653613</v>
+        <v>0.1380593893295736</v>
       </c>
       <c r="C80">
-        <v>-0.01336655539709474</v>
+        <v>-0.0685847872707903</v>
       </c>
       <c r="D80">
-        <v>-0.3215524066899037</v>
+        <v>-0.9739141426404604</v>
       </c>
       <c r="E80">
-        <v>-0.9165968565152446</v>
+        <v>0.06157726333021504</v>
       </c>
       <c r="F80">
-        <v>0.06348653682379485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04191725304170352</v>
+      </c>
+      <c r="G80">
+        <v>-0.03263075169809438</v>
+      </c>
+      <c r="H80">
+        <v>0.02972180741656919</v>
+      </c>
+      <c r="I80">
+        <v>0.09674567781563261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1574938371144664</v>
+        <v>0.1835328216292015</v>
       </c>
       <c r="C81">
-        <v>-0.02303974986568954</v>
+        <v>0.01381804542055257</v>
       </c>
       <c r="D81">
-        <v>0.0492059314098232</v>
+        <v>0.00712346634509036</v>
       </c>
       <c r="E81">
-        <v>-0.008717947934353768</v>
+        <v>-0.0891831229046828</v>
       </c>
       <c r="F81">
-        <v>-0.1885748188578182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1622042180274326</v>
+      </c>
+      <c r="G81">
+        <v>0.01618475057454775</v>
+      </c>
+      <c r="H81">
+        <v>-0.01861391491929593</v>
+      </c>
+      <c r="I81">
+        <v>-0.004906971443685313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.0930780226990451</v>
+        <v>0.07028119070163137</v>
       </c>
       <c r="C83">
-        <v>0.08949481786746157</v>
+        <v>0.05710732462248772</v>
       </c>
       <c r="D83">
-        <v>0.000311357975319444</v>
+        <v>0.01010998286819787</v>
       </c>
       <c r="E83">
-        <v>0.02249763378252275</v>
+        <v>0.02289384402261991</v>
       </c>
       <c r="F83">
-        <v>0.0159430076965652</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04796100894951144</v>
+      </c>
+      <c r="G83">
+        <v>0.03553471632839237</v>
+      </c>
+      <c r="H83">
+        <v>0.06306942577954414</v>
+      </c>
+      <c r="I83">
+        <v>-0.04213898140369444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.23619895167167</v>
+        <v>0.2496938192349382</v>
       </c>
       <c r="C85">
-        <v>0.01143847179835252</v>
+        <v>0.05615259847297372</v>
       </c>
       <c r="D85">
-        <v>0.08099178462768895</v>
+        <v>0.006586689331312641</v>
       </c>
       <c r="E85">
-        <v>-0.05819012783061329</v>
+        <v>-0.1111521155659314</v>
       </c>
       <c r="F85">
-        <v>-0.1580536126488366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1831359448437432</v>
+      </c>
+      <c r="G85">
+        <v>0.01557351985799745</v>
+      </c>
+      <c r="H85">
+        <v>-0.02201090810648167</v>
+      </c>
+      <c r="I85">
+        <v>-0.07122326517678783</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04304268651393818</v>
+        <v>0.02979280512912974</v>
       </c>
       <c r="C86">
-        <v>0.0531257727074906</v>
+        <v>0.05430723182644064</v>
       </c>
       <c r="D86">
-        <v>0.03461361114419319</v>
+        <v>0.001376147724296774</v>
       </c>
       <c r="E86">
-        <v>0.004371927418258627</v>
+        <v>-0.01355031612519821</v>
       </c>
       <c r="F86">
-        <v>0.06966869340340393</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08025056360174156</v>
+      </c>
+      <c r="G86">
+        <v>0.05623542680291833</v>
+      </c>
+      <c r="H86">
+        <v>0.01226846060007268</v>
+      </c>
+      <c r="I86">
+        <v>-0.05942766600810736</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01930177859121405</v>
+        <v>0.0269431519467981</v>
       </c>
       <c r="C87">
-        <v>-0.03630327079395296</v>
+        <v>-0.006592344067069195</v>
       </c>
       <c r="D87">
-        <v>-0.01056846238919448</v>
+        <v>-0.003507925719830242</v>
       </c>
       <c r="E87">
-        <v>0.006016902298074847</v>
+        <v>0.003511883518572794</v>
       </c>
       <c r="F87">
-        <v>0.09482677458534083</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1038637511011394</v>
+      </c>
+      <c r="G87">
+        <v>0.02886680174814857</v>
+      </c>
+      <c r="H87">
+        <v>-0.01092993935678831</v>
+      </c>
+      <c r="I87">
+        <v>-0.03339000401052009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0308262535602826</v>
+        <v>0.03581296399481417</v>
       </c>
       <c r="C88">
-        <v>0.01384303526676976</v>
+        <v>0.006387512681428375</v>
       </c>
       <c r="D88">
-        <v>0.0166227712837656</v>
+        <v>-0.00546243454909217</v>
       </c>
       <c r="E88">
-        <v>-0.0248446620852743</v>
+        <v>-0.0107219472714865</v>
       </c>
       <c r="F88">
-        <v>-0.02505073748780582</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01584404466670073</v>
+      </c>
+      <c r="G88">
+        <v>0.02296240264261929</v>
+      </c>
+      <c r="H88">
+        <v>0.04732689706939981</v>
+      </c>
+      <c r="I88">
+        <v>0.001201669156930235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.05776123056382396</v>
+        <v>0.0910498101000376</v>
       </c>
       <c r="C89">
-        <v>-0.3395414977153944</v>
+        <v>-0.3844966089858088</v>
       </c>
       <c r="D89">
-        <v>-0.1539849347001758</v>
+        <v>0.0573005334458004</v>
       </c>
       <c r="E89">
-        <v>0.09253571083670585</v>
+        <v>0.05285100083026371</v>
       </c>
       <c r="F89">
-        <v>0.03771483989247632</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.0470544938275852</v>
+      </c>
+      <c r="G89">
+        <v>0.08306269757517468</v>
+      </c>
+      <c r="H89">
+        <v>0.04408971051666195</v>
+      </c>
+      <c r="I89">
+        <v>-0.07142142547544579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.04124708458856149</v>
+        <v>0.05695969604805982</v>
       </c>
       <c r="C90">
-        <v>-0.2991418853695393</v>
+        <v>-0.3370696817960899</v>
       </c>
       <c r="D90">
-        <v>-0.1269728548242683</v>
+        <v>0.031127628759</v>
       </c>
       <c r="E90">
-        <v>0.02749599832644945</v>
+        <v>0.05090030050499863</v>
       </c>
       <c r="F90">
-        <v>0.06813428751908882</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03946311828203286</v>
+      </c>
+      <c r="G90">
+        <v>0.05174753372253319</v>
+      </c>
+      <c r="H90">
+        <v>0.02075216767414876</v>
+      </c>
+      <c r="I90">
+        <v>-0.04753177351002009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2699719926775159</v>
+        <v>0.2860247330349228</v>
       </c>
       <c r="C91">
-        <v>0.01277302878894465</v>
+        <v>0.06074278563705168</v>
       </c>
       <c r="D91">
-        <v>0.0756707917638122</v>
+        <v>0.01445768264926629</v>
       </c>
       <c r="E91">
-        <v>-0.037668314993444</v>
+        <v>-0.1035006188468737</v>
       </c>
       <c r="F91">
-        <v>-0.2758773145091536</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2704041961206609</v>
+      </c>
+      <c r="G91">
+        <v>-0.0006559715740892094</v>
+      </c>
+      <c r="H91">
+        <v>-0.05145514176358242</v>
+      </c>
+      <c r="I91">
+        <v>-0.06493063892250661</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.07336899532498159</v>
+        <v>0.1290893092309943</v>
       </c>
       <c r="C92">
-        <v>-0.3072235516575571</v>
+        <v>-0.3776189545191591</v>
       </c>
       <c r="D92">
-        <v>-0.2131123548531802</v>
+        <v>0.0189004777982354</v>
       </c>
       <c r="E92">
-        <v>0.02366496563767883</v>
+        <v>0.08061662265753916</v>
       </c>
       <c r="F92">
-        <v>-0.09719523190704853</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1192085861059505</v>
+      </c>
+      <c r="G92">
+        <v>0.3308914397652151</v>
+      </c>
+      <c r="H92">
+        <v>0.005621692500523798</v>
+      </c>
+      <c r="I92">
+        <v>0.05462070431790237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.03738549479262506</v>
+        <v>0.07511331043956264</v>
       </c>
       <c r="C93">
-        <v>-0.35196800603919</v>
+        <v>-0.401017694713603</v>
       </c>
       <c r="D93">
-        <v>-0.1696865445282974</v>
+        <v>0.04817259788052031</v>
       </c>
       <c r="E93">
-        <v>0.04944247499633373</v>
+        <v>0.08571647094409394</v>
       </c>
       <c r="F93">
-        <v>-0.004335781600745108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.000419918390391813</v>
+      </c>
+      <c r="G93">
+        <v>0.02583241684748658</v>
+      </c>
+      <c r="H93">
+        <v>0.0577332413171681</v>
+      </c>
+      <c r="I93">
+        <v>0.01104238105563473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2815800240362711</v>
+        <v>0.3121786258541325</v>
       </c>
       <c r="C94">
-        <v>-0.1105718918815404</v>
+        <v>-0.03185974349591081</v>
       </c>
       <c r="D94">
-        <v>0.009704635561897787</v>
+        <v>0.04679880922118509</v>
       </c>
       <c r="E94">
-        <v>0.004043555301710962</v>
+        <v>-0.1138441257052425</v>
       </c>
       <c r="F94">
-        <v>-0.3324300556826916</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3097844489389092</v>
+      </c>
+      <c r="G94">
+        <v>0.0925217050929556</v>
+      </c>
+      <c r="H94">
+        <v>-0.2019586682321395</v>
+      </c>
+      <c r="I94">
+        <v>-0.01616421546213771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1708882647523229</v>
+        <v>0.1343041608310649</v>
       </c>
       <c r="C95">
-        <v>0.06972430201011322</v>
+        <v>0.06462595534749385</v>
       </c>
       <c r="D95">
-        <v>0.006526460355968472</v>
+        <v>0.08041445249148504</v>
       </c>
       <c r="E95">
-        <v>0.08938297927810386</v>
+        <v>-0.02642335578300252</v>
       </c>
       <c r="F95">
-        <v>-0.3948700673183889</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.106344898437133</v>
+      </c>
+      <c r="G95">
+        <v>-0.00318004418390949</v>
+      </c>
+      <c r="H95">
+        <v>0.8752125125554038</v>
+      </c>
+      <c r="I95">
+        <v>0.3601074225288846</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2071483162177863</v>
+        <v>0.2084149732774743</v>
       </c>
       <c r="C98">
-        <v>-0.08433937841807825</v>
+        <v>-0.06107680532841007</v>
       </c>
       <c r="D98">
-        <v>-0.01645887911216014</v>
+        <v>0.06242131452299404</v>
       </c>
       <c r="E98">
-        <v>0.08251534069069645</v>
+        <v>0.02461779107928861</v>
       </c>
       <c r="F98">
-        <v>0.09343767924911825</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1675947916178541</v>
+      </c>
+      <c r="G98">
+        <v>-0.3491760797216855</v>
+      </c>
+      <c r="H98">
+        <v>-0.03135108152188616</v>
+      </c>
+      <c r="I98">
+        <v>0.1067699725315379</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.03155109346114918</v>
+        <v>0.01884435119789276</v>
       </c>
       <c r="C101">
-        <v>0.02247448363086957</v>
+        <v>0.03361349949160981</v>
       </c>
       <c r="D101">
-        <v>0.03671106928382649</v>
+        <v>-0.005601105883637041</v>
       </c>
       <c r="E101">
-        <v>-0.01772328429807283</v>
+        <v>-0.03562625374080092</v>
       </c>
       <c r="F101">
-        <v>0.01982145012864648</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06461108078614873</v>
+      </c>
+      <c r="G101">
+        <v>0.1126061382836581</v>
+      </c>
+      <c r="H101">
+        <v>-0.01566112832654949</v>
+      </c>
+      <c r="I101">
+        <v>0.1186543528663114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.09800509209417066</v>
+        <v>0.117060487444294</v>
       </c>
       <c r="C102">
-        <v>0.01375396784512186</v>
+        <v>0.02626117907303402</v>
       </c>
       <c r="D102">
-        <v>0.04838118914610585</v>
+        <v>-0.004426191934212052</v>
       </c>
       <c r="E102">
-        <v>-0.03804074457230219</v>
+        <v>-0.05426009473110631</v>
       </c>
       <c r="F102">
-        <v>-0.1053425757264006</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1162102234404684</v>
+      </c>
+      <c r="G102">
+        <v>0.008782203572960667</v>
+      </c>
+      <c r="H102">
+        <v>0.001655918081634297</v>
+      </c>
+      <c r="I102">
+        <v>-0.04634779971060998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02121835215202207</v>
+        <v>0.02930511021892243</v>
       </c>
       <c r="C103">
-        <v>0.008885984165456799</v>
+        <v>0.01088407873579075</v>
       </c>
       <c r="D103">
-        <v>0.01652343210763425</v>
+        <v>-0.009090429555406789</v>
       </c>
       <c r="E103">
-        <v>-0.006229235543458726</v>
+        <v>-0.01819557687531091</v>
       </c>
       <c r="F103">
-        <v>-0.03367981672489888</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02577472368831701</v>
+      </c>
+      <c r="G103">
+        <v>0.01670003151820049</v>
+      </c>
+      <c r="H103">
+        <v>0.00874548315855788</v>
+      </c>
+      <c r="I103">
+        <v>-0.01469278747184617</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
